--- a/data/income_statement/3digits/total/900_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/900_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>900-Creative, arts and entertainment activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>900-Creative, arts and entertainment activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,53 +841,63 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>411202.9627</v>
+        <v>411202.9626999999</v>
       </c>
       <c r="D5" s="47" t="n">
         <v>584060.8305800001</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>661027.6259099999</v>
+        <v>661027.6259100001</v>
       </c>
       <c r="F5" s="47" t="n">
         <v>704230.2184400001</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>910035.75529</v>
+        <v>910530.47083</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>1119437.29922</v>
+        <v>1119518.07355</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>999316.36569</v>
+        <v>1279276.77896</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>1455051.21362</v>
+        <v>1455449.99933</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>1881218.64129</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>2014730.31822</v>
+        <v>2016971.66299</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>2136606.00254</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>2175471.44119</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>1551036.976</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>378946.04161</v>
@@ -1001,31 +912,36 @@
         <v>666130.66854</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>858130.669</v>
+        <v>858618.6843399999</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>1070944.2803</v>
+        <v>1071024.99793</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>946089.7116700001</v>
+        <v>1224296.51865</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>1394228.34274</v>
+        <v>1394587.41158</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>1809806.01739</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>1921461.44738</v>
+        <v>1923658.24282</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>2023808.74215</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>2062151.71202</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>1474827.715</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>6951.87384</v>
@@ -1052,19 +968,24 @@
         <v>30089.87359</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>41108.53717999999</v>
+        <v>41108.53718</v>
       </c>
       <c r="L7" s="48" t="n">
         <v>50893.3057</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>55222.05477</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>55537.15059</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>48393.918</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>25305.04725</v>
@@ -1079,31 +1000,36 @@
         <v>25960.31673</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>29789.32412</v>
+        <v>29796.02432</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>25931.28144</v>
+        <v>25931.33814</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>23747.13945</v>
+        <v>25500.74574</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>30732.99729</v>
+        <v>30772.71416</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>30304.08672</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>42375.56514</v>
+        <v>42420.11447</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>57575.20562000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>57782.57858</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>27815.343</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>3015.2805</v>
@@ -1115,16 +1041,16 @@
         <v>4399.81535</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>4345.037890000001</v>
+        <v>4345.03789</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>7160.0112</v>
+        <v>7161.94256</v>
       </c>
       <c r="H9" s="47" t="n">
         <v>11948.30146</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>4536.57015</v>
+        <v>4866.85401</v>
       </c>
       <c r="J9" s="47" t="n">
         <v>9974.50583</v>
@@ -1136,13 +1062,18 @@
         <v>14359.83781</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>16741.59425</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>16812.1552</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>45882.976</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>2854.04285</v>
@@ -1157,13 +1088,13 @@
         <v>3985.85299</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>6620.59519</v>
+        <v>6622.52655</v>
       </c>
       <c r="H10" s="48" t="n">
         <v>11111.35933</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>3837.943389999999</v>
+        <v>4097.253720000001</v>
       </c>
       <c r="J10" s="48" t="n">
         <v>9426.536539999999</v>
@@ -1175,13 +1106,18 @@
         <v>12781.43122</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>15747.02983</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>15784.57225</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>45300.364</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>108.22523</v>
@@ -1202,13 +1138,13 @@
         <v>606.30085</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>486.47168</v>
+        <v>557.4452100000001</v>
       </c>
       <c r="J11" s="48" t="n">
         <v>270.23807</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>864.9891199999998</v>
+        <v>864.98912</v>
       </c>
       <c r="L11" s="48" t="n">
         <v>741.1379899999999</v>
@@ -1216,11 +1152,16 @@
       <c r="M11" s="48" t="n">
         <v>699.1356699999999</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="48" t="n">
+        <v>494.864</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>53.01242</v>
@@ -1250,16 +1191,21 @@
         <v>416.49162</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>837.2686</v>
+        <v>837.2686000000001</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>295.42875</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>328.44728</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>87.748</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>408187.6822</v>
@@ -1271,34 +1217,39 @@
         <v>656627.8105599999</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>699885.1805499999</v>
+        <v>699885.18055</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>902875.7440899999</v>
+        <v>903368.52827</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>1107488.99776</v>
+        <v>1107569.77209</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>994779.79554</v>
+        <v>1274409.92495</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>1445076.70779</v>
+        <v>1445475.4935</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>1867437.47891</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>2000370.48041</v>
+        <v>2002611.82518</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>2119864.40829</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>2158659.28599</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>1505154</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>307227.0551</v>
@@ -1313,31 +1264,36 @@
         <v>536210.03623</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>739740.59063</v>
+        <v>739981.74549</v>
       </c>
       <c r="H14" s="47" t="n">
         <v>897779.1137100001</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>787436.71358</v>
+        <v>1029002.44084</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>1189361.38991</v>
+        <v>1189592.89769</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>1527082.85914</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>1662148.53274</v>
+        <v>1662763.98662</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>1757564.88437</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>1788377.84577</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>1243541.35</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>3772.46356</v>
@@ -1361,7 +1317,7 @@
         <v>14133.28498</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>13479.76547</v>
+        <v>13554.521</v>
       </c>
       <c r="K15" s="48" t="n">
         <v>22571.22035</v>
@@ -1370,13 +1326,18 @@
         <v>14391.59924</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>51367.68035999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>51879.31634</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>36163.342</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>22898.5187</v>
@@ -1391,37 +1352,42 @@
         <v>35005.70483</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>69901.24128999999</v>
+        <v>70104.52141</v>
       </c>
       <c r="H16" s="48" t="n">
         <v>111056.67203</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>110627.03811</v>
+        <v>113502.92465</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>153345.08807</v>
+        <v>153487.62925</v>
       </c>
       <c r="K16" s="48" t="n">
         <v>199017.27826</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>131575.66564</v>
+        <v>131637.59014</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>139391.88359</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>145143.12474</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>159552.771</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>280301.55517</v>
+        <v>280301.5551699999</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>415042.0720700001</v>
+        <v>415042.07207</v>
       </c>
       <c r="E17" s="48" t="n">
         <v>455512.78095</v>
@@ -1430,31 +1396,36 @@
         <v>496737.93235</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>665890.15726</v>
+        <v>665928.032</v>
       </c>
       <c r="H17" s="48" t="n">
         <v>781223.21352</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>658943.62755</v>
+        <v>897633.46827</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>1021304.03096</v>
+        <v>1021432.5279</v>
       </c>
       <c r="K17" s="48" t="n">
         <v>1303231.83862</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>1513205.58869</v>
+        <v>1513759.11807</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>1561028.12611</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1585578.21038</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>1045551.515</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>254.51767</v>
@@ -1475,10 +1446,10 @@
         <v>657.7120800000001</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>3732.762940000001</v>
+        <v>3732.76294</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>1232.50541</v>
+        <v>1118.21954</v>
       </c>
       <c r="K18" s="48" t="n">
         <v>2262.52191</v>
@@ -1489,11 +1460,16 @@
       <c r="M18" s="48" t="n">
         <v>5777.194310000001</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18" s="48" t="n">
+        <v>2273.722</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>100960.6271</v>
@@ -1508,31 +1484,36 @@
         <v>163675.14432</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>163135.15346</v>
+        <v>163386.78278</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>209709.88405</v>
+        <v>209790.65838</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>207343.08196</v>
+        <v>245407.48411</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>255715.31788</v>
+        <v>255882.59581</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>340354.61977</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>338221.94767</v>
+        <v>339847.83856</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>362299.5239199999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>370281.44022</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>261612.65</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>78615.96887000001</v>
@@ -1544,34 +1525,39 @@
         <v>134072.40546</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>138713.58157</v>
+        <v>138716.61699</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>153994.15492</v>
+        <v>154694.19975</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>198681.49039</v>
+        <v>198721.89701</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>202987.97005</v>
+        <v>226673.94294</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>263176.86888</v>
+        <v>263352.34792</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>275122.5612</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>295073.15897</v>
+        <v>295763.24129</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>340647.66535</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>348958.5387</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>264298.713</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>0.8369800000000001</v>
@@ -1595,7 +1581,7 @@
         <v>130.9923</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>760.2508800000001</v>
+        <v>769.41188</v>
       </c>
       <c r="K21" s="48" t="n">
         <v>607.59695</v>
@@ -1606,11 +1592,16 @@
       <c r="M21" s="48" t="n">
         <v>705.6275599999999</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>1900.201</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>14382.11412</v>
@@ -1631,64 +1622,74 @@
         <v>45293.27604</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>49897.43302</v>
+        <v>50825.20794</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>61283.71793</v>
+        <v>61296.15119</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>58349.58506999999</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>57494.53204000001</v>
+        <v>57539.12197</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>43547.90551999999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>44148.85197</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>21040.195</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>64233.01777</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>79051.62679000001</v>
+        <v>79051.62678999999</v>
       </c>
       <c r="E23" s="48" t="n">
         <v>101119.92588</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>105489.49559</v>
+        <v>105492.53101</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>129098.21345</v>
+        <v>129798.25828</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>153332.67154</v>
+        <v>153373.07816</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>152959.54473</v>
+        <v>175717.7427</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>201132.90007</v>
+        <v>201286.78485</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>216165.37918</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>236864.42852</v>
+        <v>237509.92091</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>296394.13227</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>304104.05917</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>241358.317</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>22344.65823</v>
@@ -1700,40 +1701,45 @@
         <v>13629.70936</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>24961.56275</v>
+        <v>24958.52733</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>9140.998539999999</v>
+        <v>8692.58303</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>11028.39366</v>
+        <v>11068.76137</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>4355.11191</v>
+        <v>18733.54117</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>-7461.551</v>
+        <v>-7469.752109999999</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>65232.05857</v>
+        <v>65232.05856999999</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>43148.7887</v>
+        <v>44084.59727</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>21651.85857</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>21322.90152</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>-2686.063</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>7354.83816</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>7819.74813</v>
+        <v>7819.748130000001</v>
       </c>
       <c r="E25" s="47" t="n">
         <v>10256.53712</v>
@@ -1748,25 +1754,30 @@
         <v>25904.44915</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>20917.49086</v>
+        <v>22373.70227</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>37540.91648000001</v>
+        <v>37541.51952999999</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>39104.60406</v>
+        <v>39104.60406000001</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>80925.18582</v>
+        <v>80922.52641999999</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>30530.35046</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>31483.4082</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>50376.677</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>0</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>1006.0731</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>1070.963</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>252.74715</v>
@@ -1840,11 +1856,16 @@
       <c r="M27" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>2576.65341</v>
@@ -1865,25 +1886,30 @@
         <v>3456.60938</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>2825.14232</v>
+        <v>3629.6734</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>3563.830850000001</v>
+        <v>3563.83085</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>4859.61467</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>7388.03854</v>
+        <v>7389.491859999999</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>6907.497969999999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>6921.97875</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>8659.642</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>0.615</v>
@@ -1916,13 +1942,18 @@
         <v>37.30099</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>0.0052</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>0.0053</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>56.037</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>109.81047</v>
@@ -1943,7 +1974,7 @@
         <v>13394.63782</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>308.18362</v>
+        <v>483.60212</v>
       </c>
       <c r="J30" s="48" t="n">
         <v>424.59419</v>
@@ -1957,11 +1988,16 @@
       <c r="M30" s="48" t="n">
         <v>1300.04693</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>522.6799999999999</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>143.28951</v>
@@ -1996,11 +2032,16 @@
       <c r="M31" s="48" t="n">
         <v>856.1588399999999</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>149.444</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>2881.21236</v>
@@ -2015,16 +2056,16 @@
         <v>2675.64921</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>5616.690509999999</v>
+        <v>5616.69051</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>6648.424109999999</v>
+        <v>6648.42411</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>14587.1483</v>
+        <v>14705.70601</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>12460.74101</v>
+        <v>12461.34406</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>18725.58724</v>
@@ -2033,13 +2074,18 @@
         <v>62800.97927</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>16149.37707</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>16188.15375</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>33763.235</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>0</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>3e-05</v>
@@ -2113,11 +2164,16 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>1390.51023</v>
@@ -2132,31 +2188,36 @@
         <v>1496.7027</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>587.9084399999999</v>
+        <v>587.90844</v>
       </c>
       <c r="H35" s="48" t="n">
         <v>2175.4947</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>2914.72803</v>
+        <v>3272.43215</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>20758.18256</v>
+        <v>20758.18255999999</v>
       </c>
       <c r="K35" s="48" t="n">
         <v>10024.07042</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>5962.044010000001</v>
+        <v>5957.931290000001</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>4311.191350000001</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>5210.99153</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>6154.676</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>5140.97666</v>
@@ -2171,16 +2232,16 @@
         <v>4480.5552</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>12775.31142</v>
+        <v>12775.45342</v>
       </c>
       <c r="H36" s="47" t="n">
         <v>25676.40472</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>15363.97913</v>
+        <v>16139.58702</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>14453.64291</v>
+        <v>14453.82512</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>17601.56608</v>
@@ -2189,13 +2250,18 @@
         <v>74058.8633</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>19217.80571</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>19410.49765</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>25461.32</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>367.22677</v>
@@ -2207,7 +2273,7 @@
         <v>263.6335</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>424.0321300000001</v>
+        <v>424.03213</v>
       </c>
       <c r="G37" s="48" t="n">
         <v>423.71594</v>
@@ -2225,16 +2291,21 @@
         <v>706.97402</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>2249.69683</v>
+        <v>2249.696829999999</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>1305.97747</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>1416.90583</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>401.461</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>242.36627</v>
@@ -2255,7 +2326,7 @@
         <v>14728.17521</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>755.2466100000001</v>
+        <v>1132.7771</v>
       </c>
       <c r="J38" s="48" t="n">
         <v>496.63187</v>
@@ -2269,11 +2340,16 @@
       <c r="M38" s="48" t="n">
         <v>2360.97304</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>2396.54</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>0</v>
@@ -2308,11 +2384,16 @@
       <c r="M39" s="48" t="n">
         <v>2.42138</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>13.088</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>3775.30168</v>
@@ -2321,22 +2402,22 @@
         <v>3456.50011</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>6807.2906</v>
+        <v>6807.290599999999</v>
       </c>
       <c r="F40" s="48" t="n">
         <v>2221.451</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>8148.19993</v>
+        <v>8148.34193</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>8138.825309999999</v>
+        <v>8138.82531</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>12839.99765</v>
+        <v>12913.51056</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>11697.14635</v>
+        <v>11697.32854</v>
       </c>
       <c r="K40" s="48" t="n">
         <v>13914.17132</v>
@@ -2345,13 +2426,18 @@
         <v>66935.04773000001</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>13963.77057</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>14034.05282</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>20625.747</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>0</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,20 +2516,25 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>756.0819399999999</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>983.5213800000001</v>
+        <v>983.52138</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>561.04599</v>
+        <v>561.0459899999998</v>
       </c>
       <c r="F43" s="48" t="n">
         <v>1369.90978</v>
@@ -2450,10 +2546,10 @@
         <v>1914.93569</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>842.64403</v>
+        <v>1167.20852</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>946.7726600000001</v>
+        <v>946.77268</v>
       </c>
       <c r="K43" s="48" t="n">
         <v>1383.9888</v>
@@ -2462,13 +2558,18 @@
         <v>3674.74632</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>1584.66325</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>1596.14458</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>2024.484</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>9077.023150000001</v>
@@ -2483,13 +2584,13 @@
         <v>7761.977980000001</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>10688.36959</v>
+        <v>10707.29306</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>11217.2923</v>
+        <v>11217.4323</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>23096.99013</v>
+        <v>23424.44264</v>
       </c>
       <c r="J44" s="47" t="n">
         <v>25375.93587</v>
@@ -2498,16 +2599,21 @@
         <v>26515.86623</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>52828.59987999999</v>
+        <v>52828.82847</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>38390.10616</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>39032.64055</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>19279.196</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>8456.292589999999</v>
@@ -2519,16 +2625,16 @@
         <v>4596.77547</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>7448.30232</v>
+        <v>7448.302320000001</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>10042.0164</v>
+        <v>10060.93987</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>10761.35041</v>
+        <v>10761.49041</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>22647.48938</v>
+        <v>22974.94189</v>
       </c>
       <c r="J45" s="48" t="n">
         <v>24898.02223</v>
@@ -2537,19 +2643,24 @@
         <v>26145.02005</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>52122.88612</v>
+        <v>52123.11471</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>37935.76896</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>38578.30335</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>19205.362</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>620.7305600000001</v>
+        <v>620.73056</v>
       </c>
       <c r="D46" s="48" t="n">
         <v>422.09523</v>
@@ -2561,7 +2672,7 @@
         <v>313.6756600000001</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>646.35319</v>
+        <v>646.3531899999999</v>
       </c>
       <c r="H46" s="48" t="n">
         <v>455.94189</v>
@@ -2581,11 +2692,16 @@
       <c r="M46" s="48" t="n">
         <v>454.3372</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>73.834</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>15481.49658</v>
@@ -2597,34 +2713,39 @@
         <v>10458.5424</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>19697.78951</v>
+        <v>19694.75409</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>-4144.871279999999</v>
+        <v>-4612.352260000001</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>39.1457899999991</v>
+        <v>79.37350000000384</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>-13188.36649</v>
+        <v>1543.213780000001</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>-9750.213299999999</v>
+        <v>-9757.993570000001</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>60219.23032</v>
+        <v>60219.23032000001</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>-2813.488660000004</v>
+        <v>-1880.568080000002</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>-5425.702839999998</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>-5636.828480000002</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>2950.098</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>4920.66408</v>
@@ -2639,31 +2760,36 @@
         <v>6579.95124</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>6539.641959999999</v>
+        <v>6541.278389999999</v>
       </c>
       <c r="H48" s="47" t="n">
         <v>14915.74024</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>11309.00092</v>
+        <v>11944.1729</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>15325.25217</v>
+        <v>15324.23526</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>19708.13926</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>30022.13113</v>
+        <v>30042.86272</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>23302.4678</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>23483.72895</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>28147.864</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>27.04883</v>
@@ -2678,7 +2804,7 @@
         <v>4.84899</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>23.63954</v>
+        <v>25.27597</v>
       </c>
       <c r="H49" s="48" t="n">
         <v>187.63749</v>
@@ -2698,11 +2824,16 @@
       <c r="M49" s="48" t="n">
         <v>30.47918</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>1431.363</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>4893.61525</v>
@@ -2714,7 +2845,7 @@
         <v>5270.244570000001</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>6575.10225</v>
+        <v>6575.102249999999</v>
       </c>
       <c r="G50" s="48" t="n">
         <v>6516.00242</v>
@@ -2723,25 +2854,30 @@
         <v>14728.10275</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>11051.15696</v>
+        <v>11686.32894</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>15250.86895</v>
+        <v>15249.85204</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>17990.05168</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>29890.45089</v>
+        <v>29911.18248</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>23271.98862</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>23453.24976999999</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>26716.501</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>5015.533</v>
@@ -2756,31 +2892,36 @@
         <v>7606.29334</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>8816.85175</v>
+        <v>8816.922990000001</v>
       </c>
       <c r="H51" s="47" t="n">
         <v>23360.88538</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>10078.36451</v>
+        <v>10634.25653</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>35287.20728</v>
+        <v>35292.8071</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>15270.3761</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>50773.6726</v>
+        <v>50810.76951999999</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>24205.90076</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>24437.85248</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>18919.376</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>297.50423</v>
@@ -2804,7 +2945,7 @@
         <v>104.43272</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>0.79645</v>
+        <v>1.16725</v>
       </c>
       <c r="K52" s="48" t="n">
         <v>1083.29088</v>
@@ -2815,11 +2956,16 @@
       <c r="M52" s="48" t="n">
         <v>8.76562</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>2638.552</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>508.01283</v>
@@ -2840,10 +2986,10 @@
         <v>315.59501</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>201.17586</v>
+        <v>282.53996</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>3216.4578</v>
+        <v>3216.54059</v>
       </c>
       <c r="K53" s="48" t="n">
         <v>2743.7556</v>
@@ -2852,13 +2998,18 @@
         <v>665.14068</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>4299.82013</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>4311.49705</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>4149.512</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>4210.01594</v>
@@ -2873,31 +3024,36 @@
         <v>5645.23942</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>6249.059689999999</v>
+        <v>6249.130929999999</v>
       </c>
       <c r="H54" s="48" t="n">
         <v>23044.36653</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>9772.755929999999</v>
+        <v>10247.28385</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>32069.95303</v>
+        <v>32075.09926</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>11443.32962</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>50025.64538999999</v>
+        <v>50062.74231</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>19897.31501</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>20117.58981</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>12131.312</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>15386.62766</v>
@@ -2909,40 +3065,45 @@
         <v>-11725.78796</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>18671.44741</v>
+        <v>18668.41199</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>-6422.081069999999</v>
+        <v>-6887.996859999999</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>-8405.999350000002</v>
+        <v>-8365.771640000001</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>-11957.73008</v>
+        <v>2853.130150000001</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-29712.16841</v>
+        <v>-29726.56541</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>64656.99348</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-23565.03013</v>
+        <v>-22648.47488</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>-6329.1358</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>-6590.952010000001</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>12178.586</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>4772.37238</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>4994.927050000001</v>
+        <v>4994.92705</v>
       </c>
       <c r="E56" s="47" t="n">
         <v>8176.87565</v>
@@ -2951,13 +3112,13 @@
         <v>7523.61497</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>8894.482540000001</v>
+        <v>8894.482539999999</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>11702.02778</v>
+        <v>11702.99393</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>6991.7464</v>
+        <v>10081.69345</v>
       </c>
       <c r="J56" s="47" t="n">
         <v>11070.54085</v>
@@ -2966,16 +3127,21 @@
         <v>18431.10709</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>17228.38595</v>
+        <v>17488.21749</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>19331.66207</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>19837.33865</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>8779.869000000001</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>10614.25528</v>
@@ -2987,31 +3153,34 @@
         <v>-19902.66361</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>11147.83244</v>
+        <v>11144.79702</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>-15316.56361</v>
+        <v>-15782.4794</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-20108.02713</v>
+        <v>-20068.76557</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-18949.47648</v>
+        <v>-7228.563300000001</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-40782.70926</v>
+        <v>-40797.10626</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>46225.88639</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-40793.41608</v>
+        <v>-40136.69237</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>-25660.79787</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>-26428.29066</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>3398.717</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>449</v>
@@ -3041,31 +3213,34 @@
         <v>566</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>666</v>
+        <v>670</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>671</v>
+        <v>678</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>695</v>
+        <v>699</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>734</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>745</v>
+        <v>767</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>819</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>